--- a/Schnittstellen.xlsx
+++ b/Schnittstellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2020\04 - Electronics\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDF64F4-690A-4D82-B870-CB3D74B7DEA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8440A2-2A3B-4410-83E7-CD0DC8702AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="284">
   <si>
     <t>Gerät</t>
   </si>
@@ -832,6 +832,57 @@
   </si>
   <si>
     <t>VSS (NWSU)</t>
+  </si>
+  <si>
+    <t>Datenlooger Ausgang</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>VCC In</t>
+  </si>
+  <si>
+    <t>Analog GND In</t>
+  </si>
+  <si>
+    <t>Damper1 Out</t>
+  </si>
+  <si>
+    <t>Damper 2 Out</t>
+  </si>
+  <si>
+    <t>Analog Backup Out</t>
+  </si>
+  <si>
+    <t>Digital Out/In Backup</t>
+  </si>
+  <si>
+    <t>Damper 1 In</t>
+  </si>
+  <si>
+    <t>Damper 2 In</t>
+  </si>
+  <si>
+    <t>Analog In</t>
+  </si>
+  <si>
+    <t>VCC Out</t>
+  </si>
+  <si>
+    <t>Digital In/Out</t>
+  </si>
+  <si>
+    <t>GND Analog</t>
+  </si>
+  <si>
+    <t>CAN Extension</t>
+  </si>
+  <si>
+    <t>Can Extension</t>
   </si>
 </sst>
 </file>
@@ -1043,32 +1094,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1163,13 +1188,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1182,6 +1200,39 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1198,14 +1249,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31059E6-F1D6-4971-8C7E-282FD5400FF1}" name="Tabelle1" displayName="Tabelle1" ref="H2:L50" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31059E6-F1D6-4971-8C7E-282FD5400FF1}" name="Tabelle1" displayName="Tabelle1" ref="H2:L50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="H2:L50" xr:uid="{ACB302FC-3223-4B14-A7ED-23A1DE340AE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AB5DF06-D180-4382-A2B2-F0D8A73433A4}" name="Gerät" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2D335D8E-C827-4BB4-AA08-16B63FE22DFB}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0B915AD7-B87B-49B7-AD68-D7B2D6A92BB7}" name="Anzahl" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{30A95CCD-7401-410B-8511-D1A68D0EED94}" name="PIN" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D16B0955-E7C6-44AA-9F8F-F8CCD8D5B693}" name="Pin Name/Notiz" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1AB5DF06-D180-4382-A2B2-F0D8A73433A4}" name="Gerät" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2D335D8E-C827-4BB4-AA08-16B63FE22DFB}" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0B915AD7-B87B-49B7-AD68-D7B2D6A92BB7}" name="Anzahl" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{30A95CCD-7401-410B-8511-D1A68D0EED94}" name="PIN" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D16B0955-E7C6-44AA-9F8F-F8CCD8D5B693}" name="Pin Name/Notiz" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:F36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,14 +2049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D773C7A0-1CF0-4EB4-B987-DAE84E5C26FF}">
   <dimension ref="B1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="11" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="11"/>
     <col min="6" max="6" width="15.140625" style="11" bestFit="1" customWidth="1"/>
@@ -3210,8 +3261,12 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="H37" s="16"/>
@@ -3238,8 +3293,12 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="22">
+        <v>1</v>
+      </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="H38" s="23"/>
@@ -3266,8 +3325,12 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="21">
+        <v>4</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="H39" s="16"/>
@@ -3294,8 +3357,12 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="22">
+        <v>6</v>
+      </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="H40" s="23"/>
@@ -3322,8 +3389,12 @@
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="C41" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="21">
+        <v>2</v>
+      </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="H41" s="16"/>
@@ -3350,8 +3421,12 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="22">
+        <v>6</v>
+      </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="H42" s="23"/>
@@ -3378,8 +3453,12 @@
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="21">
+        <v>5</v>
+      </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="H43" s="16"/>
@@ -3433,9 +3512,15 @@
       <c r="X44" s="22"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" s="21">
+        <v>1</v>
+      </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="H45" s="16"/>
@@ -3462,8 +3547,12 @@
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="22">
+        <v>1</v>
+      </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="H46" s="23"/>
@@ -3490,8 +3579,12 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1</v>
+      </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="H47" s="16"/>
@@ -3518,8 +3611,12 @@
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="22">
+        <v>6</v>
+      </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="H48" s="23"/>
@@ -3546,8 +3643,12 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="C49" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="21">
+        <v>1</v>
+      </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="H49" s="16"/>
@@ -3574,8 +3675,12 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D50" s="22">
+        <v>1</v>
+      </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="H50" s="23"/>
@@ -3602,8 +3707,12 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="21">
+        <v>4</v>
+      </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="H51" s="18"/>
@@ -3628,8 +3737,12 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="22">
+        <v>6</v>
+      </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="H52" s="18"/>
@@ -3654,8 +3767,12 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="21">
+        <v>5</v>
+      </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="H53" s="18"/>
@@ -3733,7 +3850,10 @@
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="D56" s="22">
+        <f>SUM(D45:D53)</f>
+        <v>26</v>
+      </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="H56" s="18"/>

--- a/Schnittstellen.xlsx
+++ b/Schnittstellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2020\04 - Electronics\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8440A2-2A3B-4410-83E7-CD0DC8702AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B618AF-A36D-44F4-9D49-736131F7BA62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="293">
   <si>
     <t>Gerät</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Pin Name/Notiz</t>
   </si>
   <si>
-    <t>Redcube</t>
-  </si>
-  <si>
     <t>Servo_Supply_1-3</t>
   </si>
   <si>
@@ -883,6 +880,36 @@
   </si>
   <si>
     <t>Can Extension</t>
+  </si>
+  <si>
+    <t>GND NWSU</t>
+  </si>
+  <si>
+    <t>AdapterPlatine Overall</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>60A</t>
+  </si>
+  <si>
+    <t>je 8A</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>1x10A(DCDC), 1x0.2A Signal GND</t>
+  </si>
+  <si>
+    <t>(Intern) 2.5A max</t>
+  </si>
+  <si>
+    <t>1A max.</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1085,6 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1249,8 +1277,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31059E6-F1D6-4971-8C7E-282FD5400FF1}" name="Tabelle1" displayName="Tabelle1" ref="H2:L50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="H2:L50" xr:uid="{ACB302FC-3223-4B14-A7ED-23A1DE340AE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31059E6-F1D6-4971-8C7E-282FD5400FF1}" name="Tabelle1" displayName="Tabelle1" ref="H2:L51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="H2:L51" xr:uid="{ACB302FC-3223-4B14-A7ED-23A1DE340AE7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1AB5DF06-D180-4382-A2B2-F0D8A73433A4}" name="Gerät" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2D335D8E-C827-4BB4-AA08-16B63FE22DFB}" name="Name" dataDxfId="3"/>
@@ -1813,23 +1841,23 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="9">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -1840,20 +1868,20 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -1864,33 +1892,33 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -1901,7 +1929,7 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -1911,7 +1939,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="8">
@@ -2047,19 +2075,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D773C7A0-1CF0-4EB4-B987-DAE84E5C26FF}">
-  <dimension ref="B1:X59"/>
+  <dimension ref="B1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:L24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="11" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="11"/>
-    <col min="6" max="6" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11.42578125" style="11"/>
     <col min="12" max="12" width="17.28515625" style="11" customWidth="1"/>
@@ -2072,7 +2100,7 @@
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
@@ -2142,149 +2170,155 @@
         <v>52</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="25"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" s="21"/>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
       <c r="W3" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X3" s="21"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>285</v>
+      </c>
       <c r="G4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="26"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X4" s="22"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="21">
         <v>2</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>287</v>
+      </c>
       <c r="G5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="25"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X5" s="21"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>290</v>
+      </c>
       <c r="G6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" s="26"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X6" s="22"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
@@ -2292,34 +2326,34 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" s="25"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="22">
         <v>1</v>
@@ -2327,162 +2361,170 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L8" s="26"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="21">
         <v>1</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>291</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L9" s="25"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>288</v>
+      </c>
       <c r="H10" s="24"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="27"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X10" s="22"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="21">
         <v>3</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>289</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" s="25"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="22">
         <v>3</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="H12" s="23"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" s="26"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X12" s="22"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -2493,28 +2535,28 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="25"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
@@ -2525,32 +2567,32 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L14" s="26"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X14" s="22"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17">
         <f>SUM(D3:D14)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -2558,27 +2600,27 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" s="25"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>30</v>
@@ -2588,34 +2630,34 @@
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L16" s="26"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
       <c r="W16" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X16" s="22"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -2626,28 +2668,28 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="22">
         <v>1</v>
@@ -2658,28 +2700,28 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L18" s="26"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X18" s="22"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
@@ -2690,28 +2732,28 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="25"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="22">
         <v>1</v>
@@ -2722,96 +2764,96 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20" s="26"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="22"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X20" s="22"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L21" s="25"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X21" s="21"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="22">
         <v>1</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L22" s="26"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
       <c r="W22" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X22" s="22"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
@@ -2822,28 +2864,28 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X23" s="21"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="22">
         <v>1</v>
@@ -2854,28 +2896,28 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="26"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
       <c r="W24" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X24" s="22"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="21">
         <v>3</v>
@@ -2886,28 +2928,28 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="22">
         <v>3</v>
@@ -2918,28 +2960,28 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L26" s="26"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
       <c r="W26" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X26" s="22"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="21">
         <v>1</v>
@@ -2950,27 +2992,27 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L27" s="25"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X27" s="21"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="32">
@@ -2983,30 +3025,30 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L28" s="26"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R28" s="22"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
       <c r="W28" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X28" s="22"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="21">
         <v>6</v>
@@ -3017,28 +3059,28 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L29" s="25"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X29" s="21"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30" s="22">
         <v>6</v>
@@ -3049,60 +3091,62 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L30" s="26"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R30" s="22"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
       <c r="W30" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X30" s="22"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
       <c r="C31" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D31" s="21">
         <v>6</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>292</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L31" s="25"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X31" s="21"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" s="22">
         <v>6</v>
@@ -3113,28 +3157,28 @@
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" s="26"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R32" s="22"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
       <c r="W32" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X32" s="22"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" s="21">
         <v>1</v>
@@ -3145,28 +3189,28 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L33" s="25"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X33" s="21"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D34" s="22">
         <v>1</v>
@@ -3177,28 +3221,28 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L34" s="26"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R34" s="22"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
       <c r="W34" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X34" s="22"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" s="21">
         <v>1</v>
@@ -3209,28 +3253,28 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L35" s="25"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R35" s="21"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="22">
         <v>1</v>
@@ -3241,28 +3285,28 @@
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L36" s="26"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R36" s="22"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
       <c r="W36" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X36" s="22"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
       <c r="C37" s="21" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D37" s="21">
         <v>1</v>
@@ -3272,120 +3316,114 @@
       <c r="H37" s="16"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="12" t="s">
-        <v>136</v>
-      </c>
+      <c r="K37" s="12"/>
       <c r="L37" s="25"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="R37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="X37" s="21"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D38" s="22">
         <v>1</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="R38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="X38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="R38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="X38" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D39" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L39" s="25"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="R39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="X39" s="21"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="R39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="X39" s="22"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D40" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L40" s="26"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="R40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="X40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L40" s="25"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="R40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="X40" s="21"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
@@ -3393,355 +3431,362 @@
         <v>279</v>
       </c>
       <c r="D41" s="21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L41" s="25"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="R41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="X41" s="21"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="R41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="X41" s="22"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
       <c r="C42" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D42" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="26"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="R42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="X42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="25"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="R42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="X42" s="21"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
       <c r="C43" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D43" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="25"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="R43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="X43" s="21"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="X43" s="22"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="22">
+        <v>5</v>
+      </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="26"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="R44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="X44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="R44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="X44" s="21"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33">
+        <f>SUM(D29:D44)</f>
+        <v>54</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="R45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="X45" s="22"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D45" s="21">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="L45" s="25"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="R45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="X45" s="21"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
-        <v>269</v>
       </c>
       <c r="D46" s="22">
         <v>1</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L46" s="26"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="R46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="X46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="25"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="R46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="X46" s="21"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
       <c r="C47" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D47" s="21">
         <v>1</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L47" s="25"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="R47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="X47" s="21"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="R47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="X47" s="22"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="22"/>
       <c r="C48" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D48" s="22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L48" s="26"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="R48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="X48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="25"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="R48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="X48" s="21"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="21"/>
       <c r="C49" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D49" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L49" s="25"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="R49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="X49" s="21"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="R49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="X49" s="22"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="22"/>
       <c r="C50" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D50" s="22">
         <v>1</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="26"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="R50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="X50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L50" s="25"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="X50" s="21"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="21"/>
       <c r="C51" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D51" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="R51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="X51" s="21"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="26"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="R51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="X51" s="22"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="22"/>
       <c r="C52" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D52" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -3750,28 +3795,28 @@
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="R52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="X52" s="22"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="R52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="X52" s="21"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="21"/>
       <c r="C53" s="21" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D53" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -3780,25 +3825,29 @@
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="R53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="X53" s="21"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="R53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="X53" s="22"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="C54" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="22">
+        <v>5</v>
+      </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="H54" s="18"/>
@@ -3806,20 +3855,20 @@
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="R54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="X54" s="22"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="R54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="X54" s="21"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="21"/>
@@ -3832,28 +3881,25 @@
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="R55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="X55" s="21"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="R55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="X55" s="22"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="22">
-        <f>SUM(D45:D53)</f>
-        <v>26</v>
-      </c>
+      <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="H56" s="18"/>
@@ -3861,25 +3907,28 @@
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="R56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="X56" s="22"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="R56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="X56" s="21"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="D57" s="21">
+        <f>SUM(D46:D54)</f>
+        <v>26</v>
+      </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="H57" s="18"/>
@@ -3887,21 +3936,20 @@
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="R57" s="21"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="X57" s="31"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="R57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X57" s="22"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="22"/>
@@ -3909,12 +3957,26 @@
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="R58" s="21"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="X58" s="31"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="21"/>
@@ -3922,8 +3984,21 @@
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
       <c r="W59" s="18"/>
       <c r="X59" s="18"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Schnittstellen.xlsx
+++ b/Schnittstellen.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2020\04 - Electronics\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B618AF-A36D-44F4-9D49-736131F7BA62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28250ED-270B-4378-A21B-993BB6897280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Jeder Scheiß kleine Anschluss" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Adapter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="389">
   <si>
     <t>Gerät</t>
   </si>
@@ -910,6 +910,294 @@
   </si>
   <si>
     <t>1A max.</t>
+  </si>
+  <si>
+    <t>BSPD</t>
+  </si>
+  <si>
+    <t>Fused 12V In</t>
+  </si>
+  <si>
+    <t>TPS_GND</t>
+  </si>
+  <si>
+    <t>TPS_Supply</t>
+  </si>
+  <si>
+    <t>TPS Signal</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Ausgang</t>
+  </si>
+  <si>
+    <t>Ausgang (mit sicherung)</t>
+  </si>
+  <si>
+    <t>TPS_In</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>TPS In</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>BSE Binder</t>
+  </si>
+  <si>
+    <t>Mainswitch</t>
+  </si>
+  <si>
+    <t>Batterycase</t>
+  </si>
+  <si>
+    <t>Brakelight</t>
+  </si>
+  <si>
+    <t>12V VSUP</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
+  </si>
+  <si>
+    <t>UAC</t>
+  </si>
+  <si>
+    <t>NWSU</t>
+  </si>
+  <si>
+    <t>FuelP</t>
+  </si>
+  <si>
+    <t>Fan 1&amp;2 + FAN CTRL</t>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>SDL</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>SDBOTS</t>
+  </si>
+  <si>
+    <t>Startknopfcockpit</t>
+  </si>
+  <si>
+    <t>StartknopfMainswitch</t>
+  </si>
+  <si>
+    <t>SDCLED</t>
+  </si>
+  <si>
+    <t>SDILED</t>
+  </si>
+  <si>
+    <t>SDBOTSLED</t>
+  </si>
+  <si>
+    <t>SDLLED</t>
+  </si>
+  <si>
+    <t>SDRLED</t>
+  </si>
+  <si>
+    <t>DIC + RPM + Fehler</t>
+  </si>
+  <si>
+    <t>Drehencoder_5Pin</t>
+  </si>
+  <si>
+    <t>Buttons 2Pin</t>
+  </si>
+  <si>
+    <t>8,3V OUT</t>
+  </si>
+  <si>
+    <t>Binder_CLTIN</t>
+  </si>
+  <si>
+    <t>Binder_CLTOUT</t>
+  </si>
+  <si>
+    <t>Binder_Brakepressure</t>
+  </si>
+  <si>
+    <t>Binder_Dämpfer</t>
+  </si>
+  <si>
+    <t>Binder_WheelSpeed</t>
+  </si>
+  <si>
+    <t>Binder_Analog</t>
+  </si>
+  <si>
+    <t>Binder_Servo</t>
+  </si>
+  <si>
+    <t>Shifting servo</t>
+  </si>
+  <si>
+    <t>Clutch servo</t>
+  </si>
+  <si>
+    <t>12VOUT</t>
+  </si>
+  <si>
+    <t>Binder_BDT</t>
+  </si>
+  <si>
+    <t>Binder_BFT</t>
+  </si>
+  <si>
+    <t>BinderWheelSpeed</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>SOUT</t>
+  </si>
+  <si>
+    <t>5VIN</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Starterrelais</t>
+  </si>
+  <si>
+    <t>Starter IN</t>
+  </si>
+  <si>
+    <t>Fuelpump In</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Signal GND</t>
+  </si>
+  <si>
+    <t>SDIN</t>
+  </si>
+  <si>
+    <t>SDOUT</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>Analog GND Out</t>
+  </si>
+  <si>
+    <t>Damper1 In</t>
+  </si>
+  <si>
+    <t>Analog Backup Oin</t>
+  </si>
+  <si>
+    <t>Programming anschluss</t>
+  </si>
+  <si>
+    <t>Programmieranschluss</t>
+  </si>
+  <si>
+    <t>8pin am gehäuse ausführen? Oder evtl auch zum mainswitch</t>
+  </si>
+  <si>
+    <t>8pin nicht extern ausführen? Evtl lenkrad hinten</t>
+  </si>
+  <si>
+    <t>8pin ans case</t>
+  </si>
+  <si>
+    <t>Programmiernaschluss</t>
+  </si>
+  <si>
+    <t>8pin an mainswitch</t>
+  </si>
+  <si>
+    <t>8pin am mainswitch</t>
+  </si>
+  <si>
+    <t>8pin an mainswitch ? Oder evtl unten ans dashboard</t>
+  </si>
+  <si>
+    <t>battery +</t>
+  </si>
+  <si>
+    <t>Supply in</t>
+  </si>
+  <si>
+    <t>Battery-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binder CAPA </t>
+  </si>
+  <si>
+    <t>12 Vsup</t>
+  </si>
+  <si>
+    <t>CAN L</t>
+  </si>
+  <si>
+    <t>Vsup, SOut</t>
+  </si>
+  <si>
+    <t>Binder_"Sensor"</t>
+  </si>
+  <si>
+    <t>12Vsup</t>
+  </si>
+  <si>
+    <t>8,3Vsup</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Lima_Output</t>
+  </si>
+  <si>
+    <t>Binder_"TYPK"</t>
+  </si>
+  <si>
+    <t>Kin</t>
+  </si>
+  <si>
+    <t>Kout</t>
+  </si>
+  <si>
+    <t>StarterCTRLout</t>
+  </si>
+  <si>
+    <t>StarterCTRLCin</t>
+  </si>
+  <si>
+    <t>StarterCTRLMin</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1072,9 +1360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1113,6 +1398,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1277,8 +1569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31059E6-F1D6-4971-8C7E-282FD5400FF1}" name="Tabelle1" displayName="Tabelle1" ref="H2:L51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="H2:L51" xr:uid="{ACB302FC-3223-4B14-A7ED-23A1DE340AE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31059E6-F1D6-4971-8C7E-282FD5400FF1}" name="Tabelle1" displayName="Tabelle1" ref="H2:L50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="H2:L50" xr:uid="{ACB302FC-3223-4B14-A7ED-23A1DE340AE7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1AB5DF06-D180-4382-A2B2-F0D8A73433A4}" name="Gerät" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2D335D8E-C827-4BB4-AA08-16B63FE22DFB}" name="Name" dataDxfId="3"/>
@@ -1553,22 +1845,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:I165"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1584,8 +1877,14 @@
       <c r="F2" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,8 +1900,11 @@
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -1616,8 +1918,11 @@
       <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -1631,8 +1936,11 @@
       <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1647,7 +1955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1661,8 +1969,14 @@
       <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -1676,8 +1990,11 @@
       <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -1691,8 +2008,11 @@
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -1706,8 +2026,11 @@
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1721,8 +2044,11 @@
       <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -1736,8 +2062,11 @@
       <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1751,8 +2080,11 @@
       <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -1766,8 +2098,11 @@
       <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -1782,7 +2117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -1796,8 +2131,14 @@
       <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>378</v>
+      </c>
+      <c r="I16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>19</v>
@@ -1811,8 +2152,11 @@
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>30</v>
@@ -1826,210 +2170,286 @@
       <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="I18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7">
-        <f xml:space="preserve"> SUM(D3:D18)</f>
-        <v>20</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="33">
+        <f xml:space="preserve"> SUM(D4:D19)</f>
+        <v>18</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" t="s">
+        <v>340</v>
+      </c>
+      <c r="I20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="9">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="I22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="9">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8">
         <v>1</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="9">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8">
         <v>1</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="H24" t="s">
+        <v>383</v>
+      </c>
+      <c r="I24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="9">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8">
         <v>1</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="8">
-        <f>SUM(D20:D27)</f>
-        <v>9</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="7">
+        <f>SUM(D21:D31)</f>
+        <v>14</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
@@ -2041,16 +2461,26 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
@@ -2062,14 +2492,902 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>363</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>337</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" t="s">
+        <v>347</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>350</v>
+      </c>
+      <c r="C96" t="s">
+        <v>352</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>352</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>354</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" t="s">
+        <v>356</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>357</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>357</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" t="s">
+        <v>356</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>357</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>321</v>
+      </c>
+      <c r="C117" t="s">
+        <v>356</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>357</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>322</v>
+      </c>
+      <c r="C120" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="H129" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>62</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>367</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>82</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>55</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>88</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>89</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>363</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>90</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" t="s">
+        <v>267</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>268</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>278</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>359</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>360</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>276</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>361</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>274</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>282</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2077,1928 +3395,1931 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D773C7A0-1CF0-4EB4-B987-DAE84E5C26FF}">
   <dimension ref="B1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="11" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="11"/>
-    <col min="6" max="6" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="11"/>
-    <col min="12" max="12" width="17.28515625" style="11" customWidth="1"/>
-    <col min="13" max="17" width="11.42578125" style="11"/>
-    <col min="18" max="18" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="11.42578125" style="11"/>
-    <col min="24" max="24" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="30" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="10"/>
+    <col min="12" max="12" width="17.28515625" style="10" customWidth="1"/>
+    <col min="13" max="17" width="11.42578125" style="10"/>
+    <col min="18" max="18" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="11.42578125" style="10"/>
+    <col min="24" max="24" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="L3" s="24"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
+      <c r="R3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="21"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22" t="s">
+      <c r="L4" s="25"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22" t="s">
+      <c r="R4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="X4" s="22"/>
+      <c r="X4" s="21"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21" t="s">
+      <c r="L5" s="24"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="R5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21" t="s">
+      <c r="R5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="X5" s="21"/>
+      <c r="X5" s="20"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22" t="s">
+      <c r="L6" s="25"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
+      <c r="R6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="X6" s="22"/>
+      <c r="X6" s="21"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21" t="s">
+      <c r="L7" s="24"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21" t="s">
+      <c r="R7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="X7" s="21"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11" t="s">
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22" t="s">
+      <c r="L8" s="25"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22" t="s">
+      <c r="R8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="X8" s="22"/>
+      <c r="X8" s="21"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
+      <c r="L9" s="24"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21" t="s">
+      <c r="R9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="X9" s="21"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22" t="s">
+      <c r="L10" s="26"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="R10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22" t="s">
+      <c r="R10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="X10" s="22"/>
+      <c r="X10" s="21"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21" t="s">
+      <c r="L11" s="24"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21" t="s">
+      <c r="R11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="X11" s="21"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>3</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22" t="s">
+      <c r="L12" s="25"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22" t="s">
+      <c r="R12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="22"/>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12" t="s">
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21" t="s">
+      <c r="L13" s="24"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="R13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21" t="s">
+      <c r="R13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="X13" s="21"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22" t="s">
+      <c r="L14" s="25"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="R14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22" t="s">
+      <c r="R14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="X14" s="22"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17">
+      <c r="C15" s="13"/>
+      <c r="D15" s="16">
         <f>SUM(D3:D14)</f>
         <v>24</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21" t="s">
+      <c r="L15" s="24"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21" t="s">
+      <c r="R15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="X15" s="21"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22" t="s">
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22" t="s">
+      <c r="L16" s="25"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="R16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22" t="s">
+      <c r="R16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="X16" s="22"/>
+      <c r="X16" s="21"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12" t="s">
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21" t="s">
+      <c r="L17" s="24"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="R17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21" t="s">
+      <c r="R17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="X17" s="21"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="22">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13" t="s">
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22" t="s">
+      <c r="L18" s="25"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22" t="s">
+      <c r="R18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="X18" s="22"/>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12" t="s">
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21" t="s">
+      <c r="L19" s="24"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21" t="s">
+      <c r="R19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="X19" s="21"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13" t="s">
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22" t="s">
+      <c r="L20" s="25"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22" t="s">
+      <c r="R20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21" t="s">
+      <c r="L21" s="24"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21" t="s">
+      <c r="R21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="X21" s="21"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22" t="s">
+      <c r="L22" s="25"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22" t="s">
+      <c r="R22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="X22" s="22"/>
+      <c r="X22" s="21"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12" t="s">
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21" t="s">
+      <c r="L23" s="24"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21" t="s">
+      <c r="R23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="X23" s="21"/>
+      <c r="X23" s="20"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13" t="s">
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22" t="s">
+      <c r="L24" s="25"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="R24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22" t="s">
+      <c r="R24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="X24" s="22"/>
+      <c r="X24" s="21"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>3</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21" t="s">
+      <c r="L25" s="24"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="R25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21" t="s">
+      <c r="R25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="X25" s="21"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>3</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22" t="s">
+      <c r="L26" s="25"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22" t="s">
+      <c r="R26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="X26" s="22"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12" t="s">
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="25"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21" t="s">
+      <c r="L27" s="24"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21" t="s">
+      <c r="R27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="X27" s="21"/>
+      <c r="X27" s="20"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="32">
+      <c r="C28" s="19"/>
+      <c r="D28" s="31">
         <f>SUM(D16:D27)</f>
         <v>16</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22" t="s">
+      <c r="L28" s="25"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="R28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22" t="s">
+      <c r="R28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="X28" s="22"/>
+      <c r="X28" s="21"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D29" s="21">
-        <v>6</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12" t="s">
+      <c r="D29" s="20">
+        <v>8</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21" t="s">
+      <c r="L29" s="24"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21" t="s">
+      <c r="R29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="X29" s="21"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D30" s="22">
-        <v>6</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13" t="s">
+      <c r="D30" s="21">
+        <v>8</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22" t="s">
+      <c r="L30" s="25"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="R30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22" t="s">
+      <c r="R30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="X30" s="22"/>
+      <c r="X30" s="21"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="21">
-        <v>6</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
+      <c r="D31" s="20">
+        <v>8</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12" t="s">
+      <c r="H31" s="15"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21" t="s">
+      <c r="L31" s="24"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="R31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21" t="s">
+      <c r="R31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="X31" s="21"/>
+      <c r="X31" s="20"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="22">
-        <v>6</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13" t="s">
+      <c r="D32" s="21">
+        <v>8</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L32" s="26"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22" t="s">
+      <c r="L32" s="25"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="R32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22" t="s">
+      <c r="R32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="X32" s="22"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21" t="s">
+      <c r="L33" s="24"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="R33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21" t="s">
+      <c r="R33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="X33" s="21"/>
+      <c r="X33" s="20"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="22">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13" t="s">
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22" t="s">
+      <c r="L34" s="25"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="R34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22" t="s">
+      <c r="R34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="X34" s="22"/>
+      <c r="X34" s="21"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12" t="s">
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21" t="s">
+      <c r="L35" s="24"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="R35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21" t="s">
+      <c r="R35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="X35" s="21"/>
+      <c r="X35" s="20"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="22">
-        <v>1</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13" t="s">
+      <c r="D36" s="21">
+        <v>1</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22" t="s">
+      <c r="L36" s="25"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="R36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22" t="s">
+      <c r="R36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="X36" s="22"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D37" s="21">
-        <v>1</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="25"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="R37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="X37" s="20"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D38" s="22">
-        <v>1</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="H38" s="16"/>
+      <c r="D38" s="21">
+        <v>1</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L38" s="25"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R38" s="21"/>
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
       <c r="W38" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="21">
-        <v>1</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L39" s="26"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="R39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="X39" s="22"/>
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="R39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="X39" s="20"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>4</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="H40" s="16"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L40" s="25"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
       <c r="W40" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X40" s="21"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L41" s="26"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="R41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="X41" s="22"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="R41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="X41" s="20"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>2</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="H42" s="16"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L42" s="25"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R42" s="21"/>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="X42" s="21"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>6</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" s="26"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="R43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="X43" s="22"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="R43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="X43" s="20"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>5</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="H44" s="16"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L44" s="25"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R44" s="21"/>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X44" s="21"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32">
         <f>SUM(D29:D44)</f>
-        <v>54</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="L45" s="26"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="R45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="X45" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="R45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="X45" s="20"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="22">
-        <v>1</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="H46" s="16"/>
+      <c r="D46" s="21">
+        <v>1</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L46" s="25"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R46" s="21"/>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X46" s="21"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D47" s="21">
-        <v>1</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" s="26"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="R47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="X47" s="22"/>
+      <c r="D47" s="20">
+        <v>1</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" s="24"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="R47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="X47" s="20"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="22">
-        <v>1</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="H48" s="16"/>
+      <c r="D48" s="21">
+        <v>1</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L48" s="25"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R48" s="21"/>
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="20">
         <v>6</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L49" s="26"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="R49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="X49" s="22"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="R49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="X49" s="20"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D50" s="22">
-        <v>1</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="H50" s="16"/>
+      <c r="D50" s="21">
+        <v>1</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" s="25"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R50" s="21"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
       <c r="W50" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X50" s="21"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D51" s="21">
-        <v>1</v>
-      </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L51" s="26"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="R51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="X51" s="22"/>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="R51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="X51" s="20"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>4</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
       <c r="W52" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X52" s="21"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>6</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="R53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="X53" s="22"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="R53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="X53" s="20"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>5</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
       <c r="W54" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X54" s="21"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="R55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="X55" s="22"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="R55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="X55" s="20"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R56" s="21"/>
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
       <c r="W56" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X56" s="21"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20">
         <f>SUM(D46:D54)</f>
         <v>26</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="R57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="X57" s="22"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="R57" s="20"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="X57" s="30"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="R58" s="21"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="X58" s="31"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Schnittstellen.xlsx
+++ b/Schnittstellen.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2020\04 - Electronics\06 - Dokumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D2797-0769-4EE7-93F1-7BE28A437877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-19320" yWindow="2595" windowWidth="19440" windowHeight="15000" tabRatio="991" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jeder Scheiß kleine Anschluss" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Main Adapter" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="FAR Controller IOs" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Jeder Scheiß kleine Anschluss" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Adapter" sheetId="2" r:id="rId2"/>
+    <sheet name="FAR Controller IOs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,1268 +35,1250 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="411">
   <si>
-    <t xml:space="preserve">Gerät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin Name/Notiz</t>
+    <t>Gerät</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>Pin Name/Notiz</t>
   </si>
   <si>
     <t xml:space="preserve">Binder CAPA </t>
   </si>
   <si>
-    <t xml:space="preserve">12 Vsup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zündung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8,G16,G9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignition 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G7,G15,G23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injector 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog In #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIL_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog In #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIL_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog In #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmieranschluss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12V_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vss_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary_Trigger_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Trigger In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog_GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power_GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAT_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAT In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAM_SYNC_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camsync In #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBO_Ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBO Ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBO_Vs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBO Vs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBO Vs/Ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_"Sensor"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12Vsup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBO Heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog In #4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecu_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_Servo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,3Vsup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPS_Binder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder 4 Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servo_supply_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETC_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Ausgang)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_Servo_out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_"TYPK"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_CAPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_JTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder 8 Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS1_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS2_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programming anschluss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8pin ans case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS_GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETC_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fused 12V In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSE Binder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battery +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supply in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batterycase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brakelight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12V VSUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIC + RPM + Fehler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDCLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDILED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDBOTSLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDLLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8pin an mainswitch ? Oder evtl unten ans dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDRLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drehencoder_5Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8pin nicht extern ausführen? Evtl lenkrad hinten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons 2Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vsup, SOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,3V OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_CLTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_CLTOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_Brakepressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_Dämpfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_WheelSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8pin am gehäuse ausführen? Oder evtl auch zum mainswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_Analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clutch servo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifting servo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rectifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lima_Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12VOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_BDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder_BFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BinderWheelSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5VIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FuelP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuelpump In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starterrelais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StarterCTRLout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan 1&amp;2 + FAN CTRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDBOTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startknopfcockpit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StarterCTRLCin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartknopfMainswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StarterCTRLMin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supply_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servo_Supply_1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan_1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecu_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controller_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FuelPump_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignition_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injector_Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shutdown_Circuit_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmiernaschluss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8pin an mainswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clutch_Servo_Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear_Servo_signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear_In_Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear_In_Analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V_Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog_In_Backup#2-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital_Backup_Pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8pin am mainswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter_Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenlooger Ausgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog GND Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damper1 In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damper 2 In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Backup Oin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Out/In Backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter Platine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60A</t>
+    <t>12 Vsup</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>Zündung</t>
+  </si>
+  <si>
+    <t>G8,G16,G9</t>
+  </si>
+  <si>
+    <t>Ignition 1-3</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>G7,G15,G23</t>
+  </si>
+  <si>
+    <t>Injector 1-3</t>
+  </si>
+  <si>
+    <t>CAN H</t>
+  </si>
+  <si>
+    <t>CLT_IN</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>Analog In #1</t>
+  </si>
+  <si>
+    <t>CAN L</t>
+  </si>
+  <si>
+    <t>OIL_P</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Analog In #2</t>
+  </si>
+  <si>
+    <t>OIL_T</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>Analog In #3</t>
+  </si>
+  <si>
+    <t>Programmieranschluss</t>
+  </si>
+  <si>
+    <t>12V_In</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>Vss_In</t>
+  </si>
+  <si>
+    <t>Primary_Trigger_In</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>Primary Trigger In</t>
+  </si>
+  <si>
+    <t>Analog_GND</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>Sensor Ground</t>
+  </si>
+  <si>
+    <t>Power_GND</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>Power Ground</t>
+  </si>
+  <si>
+    <t>IAT_IN</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>IAT In</t>
+  </si>
+  <si>
+    <t>CAM_SYNC_IN</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>Camsync In #1</t>
+  </si>
+  <si>
+    <t>WBO_Ip</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>WBO Ip</t>
+  </si>
+  <si>
+    <t>WBO_Vs</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>WBO Vs</t>
+  </si>
+  <si>
+    <t>WBO Vs/Ip</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>Binder_"Sensor"</t>
+  </si>
+  <si>
+    <t>12Vsup</t>
+  </si>
+  <si>
+    <t>WBO Heater</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Flat Shift</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>Analog In #4</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>TPS_In</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>TPS In</t>
+  </si>
+  <si>
+    <t>Ecu_Overall</t>
+  </si>
+  <si>
+    <t>Binder_Servo</t>
+  </si>
+  <si>
+    <t>8,3Vsup</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>APPS_Binder</t>
+  </si>
+  <si>
+    <t>Binder 4 Pin</t>
+  </si>
+  <si>
+    <t>Servo_supply_In</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>ETC_In</t>
+  </si>
+  <si>
+    <t>(Ausgang)</t>
+  </si>
+  <si>
+    <t>Binder_Servo_out</t>
+  </si>
+  <si>
+    <t>Binder_"TYPK"</t>
+  </si>
+  <si>
+    <t>Kin</t>
+  </si>
+  <si>
+    <t>Binder_CAPA</t>
+  </si>
+  <si>
+    <t>Kout</t>
+  </si>
+  <si>
+    <t>Binder_JTAG</t>
+  </si>
+  <si>
+    <t>Binder 8 Pin</t>
+  </si>
+  <si>
+    <t>TPS1_In</t>
+  </si>
+  <si>
+    <t>TPS2_In</t>
+  </si>
+  <si>
+    <t>TPS_Supply</t>
+  </si>
+  <si>
+    <t>Programming anschluss</t>
+  </si>
+  <si>
+    <t>8pin ans case</t>
+  </si>
+  <si>
+    <t>TPS_GND</t>
+  </si>
+  <si>
+    <t>ETC_Overall</t>
+  </si>
+  <si>
+    <t>BSPD</t>
+  </si>
+  <si>
+    <t>Fused 12V In</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>TPS Signal</t>
+  </si>
+  <si>
+    <t>BSE Binder</t>
+  </si>
+  <si>
+    <t>Mainswitch</t>
+  </si>
+  <si>
+    <t>battery +</t>
+  </si>
+  <si>
+    <t>Supply in</t>
+  </si>
+  <si>
+    <t>Batterycase</t>
+  </si>
+  <si>
+    <t>Battery-</t>
+  </si>
+  <si>
+    <t>Brakelight</t>
+  </si>
+  <si>
+    <t>12V VSUP</t>
+  </si>
+  <si>
+    <t>DIC + RPM + Fehler</t>
+  </si>
+  <si>
+    <t>SDCLED</t>
+  </si>
+  <si>
+    <t>SDILED</t>
+  </si>
+  <si>
+    <t>SDBOTSLED</t>
+  </si>
+  <si>
+    <t>SDLLED</t>
+  </si>
+  <si>
+    <t>8pin an mainswitch ? Oder evtl unten ans dashboard</t>
+  </si>
+  <si>
+    <t>SDRLED</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>Drehencoder_5Pin</t>
+  </si>
+  <si>
+    <t>8pin nicht extern ausführen? Evtl lenkrad hinten</t>
+  </si>
+  <si>
+    <t>Buttons 2Pin</t>
+  </si>
+  <si>
+    <t>Vsup, SOut</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>8,3V OUT</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Binder_CLTIN</t>
+  </si>
+  <si>
+    <t>Binder_CLTOUT</t>
+  </si>
+  <si>
+    <t>Binder_Brakepressure</t>
+  </si>
+  <si>
+    <t>Binder_Dämpfer</t>
+  </si>
+  <si>
+    <t>Binder_WheelSpeed</t>
+  </si>
+  <si>
+    <t>8pin am gehäuse ausführen? Oder evtl auch zum mainswitch</t>
+  </si>
+  <si>
+    <t>Binder_Analog</t>
+  </si>
+  <si>
+    <t>Clutch servo</t>
+  </si>
+  <si>
+    <t>Shifting servo</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
+  </si>
+  <si>
+    <t>Lima_Output</t>
+  </si>
+  <si>
+    <t>12VOUT</t>
+  </si>
+  <si>
+    <t>UAC</t>
+  </si>
+  <si>
+    <t>Binder_BDT</t>
+  </si>
+  <si>
+    <t>Binder_BFT</t>
+  </si>
+  <si>
+    <t>BinderWheelSpeed</t>
+  </si>
+  <si>
+    <t>NWSU</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>SOUT</t>
+  </si>
+  <si>
+    <t>5VIN</t>
+  </si>
+  <si>
+    <t>FuelP</t>
+  </si>
+  <si>
+    <t>Fuelpump In</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Starter IN</t>
+  </si>
+  <si>
+    <t>Starterrelais</t>
+  </si>
+  <si>
+    <t>StarterCTRLout</t>
+  </si>
+  <si>
+    <t>Fan 1&amp;2 + FAN CTRL</t>
+  </si>
+  <si>
+    <t>Signal GND</t>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>SDIN</t>
+  </si>
+  <si>
+    <t>SDOUT</t>
+  </si>
+  <si>
+    <t>SDL</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>SDBOTS</t>
+  </si>
+  <si>
+    <t>Startknopfcockpit</t>
+  </si>
+  <si>
+    <t>StarterCTRLCin</t>
+  </si>
+  <si>
+    <t>StartknopfMainswitch</t>
+  </si>
+  <si>
+    <t>StarterCTRLMin</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>Supply_In</t>
+  </si>
+  <si>
+    <t>Servo_Supply_1-3</t>
+  </si>
+  <si>
+    <t>Fan_1-2</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Ecu_Supply</t>
+  </si>
+  <si>
+    <t>Controller_Supply</t>
+  </si>
+  <si>
+    <t>CAPA_Supply</t>
+  </si>
+  <si>
+    <t>FuelPump_Supply</t>
+  </si>
+  <si>
+    <t>Ignition_Supply</t>
+  </si>
+  <si>
+    <t>Injector_Supply</t>
+  </si>
+  <si>
+    <t>Shutdown_Circuit_In</t>
+  </si>
+  <si>
+    <t>Programmiernaschluss</t>
+  </si>
+  <si>
+    <t>8pin an mainswitch</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>Clutch_Servo_Signal</t>
+  </si>
+  <si>
+    <t>Gear_Servo_signal</t>
+  </si>
+  <si>
+    <t>Gear_In_Digital</t>
+  </si>
+  <si>
+    <t>Gear_In_Analog</t>
+  </si>
+  <si>
+    <t>5V_Out</t>
+  </si>
+  <si>
+    <t>VSS_In</t>
+  </si>
+  <si>
+    <t>Analog_In_Backup#2-4</t>
+  </si>
+  <si>
+    <t>Digital_Backup_Pins</t>
+  </si>
+  <si>
+    <t>8pin am mainswitch</t>
+  </si>
+  <si>
+    <t>Starter_Control</t>
+  </si>
+  <si>
+    <t>Datenlooger Ausgang</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>VCC Out</t>
+  </si>
+  <si>
+    <t>Analog GND Out</t>
+  </si>
+  <si>
+    <t>Damper1 In</t>
+  </si>
+  <si>
+    <t>Damper 2 In</t>
+  </si>
+  <si>
+    <t>Analog Backup Oin</t>
+  </si>
+  <si>
+    <t>Digital Out/In Backup</t>
+  </si>
+  <si>
+    <t>Can Extension</t>
+  </si>
+  <si>
+    <t>Adapter Platine</t>
+  </si>
+  <si>
+    <t>60A</t>
   </si>
   <si>
     <t xml:space="preserve">Fuelpump und </t>
   </si>
   <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5A</t>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>5A</t>
   </si>
   <si>
     <t xml:space="preserve">Fan Controll </t>
   </si>
   <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">je 8A</t>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>je 8A</t>
   </si>
   <si>
     <t xml:space="preserve">werden als </t>
   </si>
   <si>
-    <t xml:space="preserve">L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x10A(DCDC), 1x0.2A Signal GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input gestrichen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>1x10A(DCDC), 1x0.2A Signal GND</t>
+  </si>
+  <si>
+    <t>Input gestrichen</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
   <si>
     <t xml:space="preserve"> da dies der Controller </t>
   </si>
   <si>
-    <t xml:space="preserve">L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auf der Platine übernimmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Intern) 2.5A max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAR_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for Gear Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Gear Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdapterPlatine</t>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>auf der Platine übernimmt</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>(Intern) 2.5A max</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>FAR_Overall</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>for Gear Sensor</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>For Gear Sensor</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>L25</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>CMC_Overall</t>
+  </si>
+  <si>
+    <t>L26</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>AdapterPlatine</t>
   </si>
   <si>
     <t xml:space="preserve">CAN L </t>
   </si>
   <si>
-    <t xml:space="preserve">L27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS für CAPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A max.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND für CAPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWSU Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWSU Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC (NWSU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausgang (mit sicherung)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS (NWSU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND NWSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damper 1 In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital In/Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND Analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdapterPlatine Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog GND In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damper1 Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damper 2 Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Backup Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5VOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan1 Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan2 Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignition Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injection Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuelpump Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controller Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCDC Input Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVO 1 FUSE IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVO 2 FUSE IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVO 3 FUSE IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emu Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcklight Fuse In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan 1 PWM Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan 2 PWM Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan 1 SGND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan 2 SGND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN HIGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuelpump CTRL</t>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>VSS für CAPA</t>
+  </si>
+  <si>
+    <t>1A max.</t>
+  </si>
+  <si>
+    <t>L29</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>GND für CAPA</t>
+  </si>
+  <si>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>NWSU Input</t>
+  </si>
+  <si>
+    <t>L31</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>NWSU Output</t>
+  </si>
+  <si>
+    <t>L32</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>VCC (NWSU)</t>
+  </si>
+  <si>
+    <t>Ausgang (mit sicherung)</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>VSS (NWSU)</t>
+  </si>
+  <si>
+    <t>Ausgang</t>
+  </si>
+  <si>
+    <t>L34</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>GND NWSU</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>Damper 1 In</t>
+  </si>
+  <si>
+    <t>L36</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>L37</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>Analog In</t>
+  </si>
+  <si>
+    <t>L38</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>Digital In/Out</t>
+  </si>
+  <si>
+    <t>L39</t>
+  </si>
+  <si>
+    <t>M39</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>L40</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>GND Analog</t>
+  </si>
+  <si>
+    <t>L41</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>CAN Extension</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>AdapterPlatine Overall</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>VCC In</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>M46</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>Analog GND In</t>
+  </si>
+  <si>
+    <t>L47</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>Damper1 Out</t>
+  </si>
+  <si>
+    <t>L48</t>
+  </si>
+  <si>
+    <t>M48</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>Damper 2 Out</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>Analog Backup Out</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>M52</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>M53</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>M54</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>5VOut</t>
+  </si>
+  <si>
+    <t>Fan1 Fuse In</t>
+  </si>
+  <si>
+    <t>Fan2 Fuse In</t>
+  </si>
+  <si>
+    <t>Ignition Fuse In</t>
+  </si>
+  <si>
+    <t>Injection Fuse In</t>
+  </si>
+  <si>
+    <t>Fuelpump Fuse In</t>
+  </si>
+  <si>
+    <t>CMC Fuse In</t>
+  </si>
+  <si>
+    <t>Controller Fuse In</t>
+  </si>
+  <si>
+    <t>DCDC Input Fuse In</t>
+  </si>
+  <si>
+    <t>SERVO 1 FUSE IN</t>
+  </si>
+  <si>
+    <t>SERVO 2 FUSE IN</t>
+  </si>
+  <si>
+    <t>SERVO 3 FUSE IN</t>
+  </si>
+  <si>
+    <t>Emu Fuse In</t>
+  </si>
+  <si>
+    <t>Bcklight Fuse In</t>
+  </si>
+  <si>
+    <t>Fan 1 PWM Output</t>
+  </si>
+  <si>
+    <t>Fan 2 PWM Output</t>
+  </si>
+  <si>
+    <t>Fan 1 SGND</t>
+  </si>
+  <si>
+    <t>Fan 2 SGND</t>
+  </si>
+  <si>
+    <t>CAN Low</t>
+  </si>
+  <si>
+    <t>CAN HIGH</t>
+  </si>
+  <si>
+    <t>Fuelpump CTRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1309,248 +1302,175 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1609,49 +1529,358 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="H2:L50" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="H2:L50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="H2:L50" totalsRowShown="0">
+  <autoFilter ref="H2:L50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Gerät"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Anzahl"/>
-    <tableColumn id="4" name="PIN"/>
-    <tableColumn id="5" name="Pin Name/Notiz"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Gerät"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Anzahl"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PIN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Pin Name/Notiz"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.04591836734694"/>
+    <col min="1" max="1" width="9"/>
+    <col min="2" max="2" width="20.28515625"/>
+    <col min="3" max="3" width="21.7109375"/>
+    <col min="4" max="4" width="6.85546875"/>
+    <col min="5" max="5" width="10.85546875"/>
+    <col min="6" max="6" width="16.42578125"/>
+    <col min="7" max="7" width="9"/>
+    <col min="8" max="8" width="21"/>
+    <col min="9" max="1025" width="9"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,21 +1896,21 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1690,16 +1919,16 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1708,16 +1937,16 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1726,16 +1955,16 @@
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1745,12 +1974,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1759,19 +1988,19 @@
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1780,16 +2009,16 @@
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1798,16 +2027,16 @@
       <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1816,16 +2045,16 @@
       <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1834,16 +2063,16 @@
       <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1852,16 +2081,16 @@
       <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1870,16 +2099,16 @@
       <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1888,16 +2117,16 @@
       <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1907,12 +2136,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1921,19 +2150,19 @@
       <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1942,16 +2171,16 @@
       <c r="F17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1960,16 +2189,16 @@
       <c r="F18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1979,62 +2208,62 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="8" t="n">
-        <f aca="false">SUM(D4:D19)</f>
+      <c r="D20" s="8">
+        <f>SUM(D4:D19)</f>
         <v>18</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="4"/>
@@ -2042,45 +2271,45 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="4"/>
@@ -2088,45 +2317,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="4"/>
@@ -2134,1113 +2363,1105 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="9">
         <v>2</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="10" t="n">
-        <f aca="false">SUM(D21:D31)</f>
+      <c r="D32" s="10">
+        <f>SUM(D21:D31)</f>
         <v>14</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="4">
         <v>1</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="4">
         <v>1</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="4">
         <v>1</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="0" t="s">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>4</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0" t="s">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="0" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="0" t="s">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>126</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="0" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="0" t="s">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="0" t="s">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="0" t="s">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="0" t="s">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>131</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>133</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>134</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="0" t="s">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="0" t="s">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>139</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>141</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="s">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="0" t="s">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>139</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="0" t="s">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
         <v>57</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="0" t="s">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>143</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="0" t="s">
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>72</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="0" t="s">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>147</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>145</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="0" t="s">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>146</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>148</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>145</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="0" t="s">
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>146</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>149</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>145</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="0" t="s">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
         <v>146</v>
       </c>
-      <c r="D118" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>145</v>
       </c>
-      <c r="D120" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="0" t="s">
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>146</v>
       </c>
-      <c r="D121" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>151</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>152</v>
       </c>
-      <c r="D123" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="0" t="s">
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>154</v>
       </c>
-      <c r="D126" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="0" t="s">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
         <v>57</v>
       </c>
-      <c r="D127" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>156</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>5</v>
       </c>
-      <c r="H129" s="0" t="s">
+      <c r="H129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
         <v>157</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>3</v>
       </c>
-      <c r="H130" s="0" t="s">
+      <c r="H130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="s">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
         <v>158</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>2</v>
       </c>
-      <c r="H131" s="0" t="s">
+      <c r="H131" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
         <v>159</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="0" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
         <v>160</v>
       </c>
-      <c r="D133" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="0" t="s">
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
         <v>161</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="0" t="s">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
         <v>162</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="0" t="s">
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
         <v>163</v>
       </c>
-      <c r="D136" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="0" t="s">
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
         <v>164</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="0" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
         <v>165</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="0" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
         <v>166</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="0" t="s">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="0" t="s">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="0" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
         <v>73</v>
       </c>
-      <c r="D141" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>169</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="0" t="s">
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
         <v>170</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="0" t="s">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
         <v>171</v>
       </c>
-      <c r="D145" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="0" t="s">
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
         <v>172</v>
       </c>
-      <c r="D146" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="0" t="s">
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
         <v>173</v>
       </c>
-      <c r="D147" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="0" t="s">
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
         <v>174</v>
       </c>
-      <c r="D148" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="0" t="s">
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
         <v>159</v>
       </c>
-      <c r="D149" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="0" t="s">
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
         <v>175</v>
       </c>
-      <c r="D150" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="0" t="s">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
         <v>159</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="0" t="s">
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
         <v>176</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="0" t="s">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
         <v>177</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="0" t="s">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
         <v>26</v>
       </c>
-      <c r="D154" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" s="0" t="s">
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="0" t="s">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
         <v>179</v>
       </c>
-      <c r="D155" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>180</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>181</v>
       </c>
-      <c r="D157" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="0" t="s">
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
         <v>57</v>
       </c>
-      <c r="D158" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="0" t="s">
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
         <v>182</v>
       </c>
-      <c r="D159" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="0" t="s">
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
         <v>183</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160">
         <v>6</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="0" t="s">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
         <v>184</v>
       </c>
-      <c r="D161" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="0" t="s">
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>185</v>
       </c>
-      <c r="D162" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="0" t="s">
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
         <v>186</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="0" t="s">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
         <v>187</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164">
         <v>6</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="0" t="s">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
         <v>188</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:X60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="13" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="13" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="13" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="13" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="23" min="19" style="13" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="13" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="13" width="11.2040816326531"/>
+    <col min="1" max="1" width="11.140625" style="13"/>
+    <col min="2" max="2" width="21.28515625" style="13"/>
+    <col min="3" max="3" width="25.28515625" style="13"/>
+    <col min="4" max="5" width="11.140625" style="13"/>
+    <col min="6" max="6" width="29.5703125" style="13"/>
+    <col min="7" max="7" width="24.42578125" style="13"/>
+    <col min="8" max="11" width="11.140625" style="13"/>
+    <col min="12" max="12" width="17" style="13"/>
+    <col min="13" max="17" width="11.140625" style="13"/>
+    <col min="18" max="18" width="14.85546875" style="13"/>
+    <col min="19" max="23" width="11.140625" style="13"/>
+    <col min="24" max="24" width="14.85546875" style="13"/>
+    <col min="25" max="1025" width="11.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
       <c r="H1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3477,7 @@
       <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0"/>
+      <c r="G2"/>
       <c r="H2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3287,7 +3508,7 @@
       <c r="R2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="0"/>
+      <c r="S2"/>
       <c r="T2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3304,14 +3525,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="19">
         <v>5</v>
       </c>
       <c r="E3" s="19"/>
@@ -3335,7 +3556,7 @@
         <v>193</v>
       </c>
       <c r="R3" s="19"/>
-      <c r="S3" s="0"/>
+      <c r="S3"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
@@ -3344,12 +3565,12 @@
       </c>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="22"/>
@@ -3373,7 +3594,7 @@
         <v>198</v>
       </c>
       <c r="R4" s="22"/>
-      <c r="S4" s="0"/>
+      <c r="S4"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
@@ -3382,12 +3603,12 @@
       </c>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
       <c r="E5" s="19"/>
@@ -3411,7 +3632,7 @@
         <v>203</v>
       </c>
       <c r="R5" s="19"/>
-      <c r="S5" s="0"/>
+      <c r="S5"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
@@ -3420,12 +3641,12 @@
       </c>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="22">
         <v>2</v>
       </c>
       <c r="E6" s="22"/>
@@ -3449,7 +3670,7 @@
         <v>208</v>
       </c>
       <c r="R6" s="22"/>
-      <c r="S6" s="0"/>
+      <c r="S6"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
@@ -3458,12 +3679,12 @@
       </c>
       <c r="X6" s="22"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="19"/>
@@ -3485,7 +3706,7 @@
         <v>212</v>
       </c>
       <c r="R7" s="19"/>
-      <c r="S7" s="0"/>
+      <c r="S7"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
@@ -3494,12 +3715,12 @@
       </c>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="22">
         <v>1</v>
       </c>
       <c r="E8" s="22"/>
@@ -3521,7 +3742,7 @@
         <v>216</v>
       </c>
       <c r="R8" s="22"/>
-      <c r="S8" s="0"/>
+      <c r="S8"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
@@ -3530,12 +3751,12 @@
       </c>
       <c r="X8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
       <c r="E9" s="19"/>
@@ -3556,7 +3777,7 @@
         <v>220</v>
       </c>
       <c r="R9" s="19"/>
-      <c r="S9" s="0"/>
+      <c r="S9"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
@@ -3565,12 +3786,12 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="22">
         <v>1</v>
       </c>
       <c r="E10" s="22"/>
@@ -3591,7 +3812,7 @@
         <v>224</v>
       </c>
       <c r="R10" s="22"/>
-      <c r="S10" s="0"/>
+      <c r="S10"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
@@ -3600,12 +3821,12 @@
       </c>
       <c r="X10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="19">
         <v>3</v>
       </c>
       <c r="E11" s="19"/>
@@ -3626,7 +3847,7 @@
         <v>228</v>
       </c>
       <c r="R11" s="19"/>
-      <c r="S11" s="0"/>
+      <c r="S11"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -3635,12 +3856,12 @@
       </c>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="22">
         <v>3</v>
       </c>
       <c r="E12" s="22"/>
@@ -3661,7 +3882,7 @@
         <v>231</v>
       </c>
       <c r="R12" s="22"/>
-      <c r="S12" s="0"/>
+      <c r="S12"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
@@ -3670,12 +3891,12 @@
       </c>
       <c r="X12" s="22"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" s="19"/>
@@ -3694,7 +3915,7 @@
         <v>234</v>
       </c>
       <c r="R13" s="19"/>
-      <c r="S13" s="0"/>
+      <c r="S13"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
@@ -3703,12 +3924,12 @@
       </c>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="22">
         <v>1</v>
       </c>
       <c r="E14" s="22"/>
@@ -3727,7 +3948,7 @@
         <v>237</v>
       </c>
       <c r="R14" s="22"/>
-      <c r="S14" s="0"/>
+      <c r="S14"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -3736,13 +3957,13 @@
       </c>
       <c r="X14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="28" t="n">
-        <f aca="false">SUM(D3:D14)</f>
+      <c r="D15" s="28">
+        <f>SUM(D3:D14)</f>
         <v>24</v>
       </c>
       <c r="E15" s="14"/>
@@ -3761,7 +3982,7 @@
         <v>241</v>
       </c>
       <c r="R15" s="19"/>
-      <c r="S15" s="0"/>
+      <c r="S15"/>
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -3770,14 +3991,14 @@
       </c>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>169</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="22">
         <v>1</v>
       </c>
       <c r="E16" s="22"/>
@@ -3798,7 +4019,7 @@
         <v>244</v>
       </c>
       <c r="R16" s="22"/>
-      <c r="S16" s="0"/>
+      <c r="S16"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
@@ -3807,12 +4028,12 @@
       </c>
       <c r="X16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="19">
         <v>1</v>
       </c>
       <c r="E17" s="19"/>
@@ -3831,7 +4052,7 @@
         <v>247</v>
       </c>
       <c r="R17" s="19"/>
-      <c r="S17" s="0"/>
+      <c r="S17"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
@@ -3840,12 +4061,12 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="22" t="n">
+      <c r="D18" s="22">
         <v>1</v>
       </c>
       <c r="E18" s="22"/>
@@ -3864,7 +4085,7 @@
         <v>250</v>
       </c>
       <c r="R18" s="22"/>
-      <c r="S18" s="0"/>
+      <c r="S18"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
@@ -3873,12 +4094,12 @@
       </c>
       <c r="X18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="19">
         <v>1</v>
       </c>
       <c r="E19" s="19"/>
@@ -3897,7 +4118,7 @@
         <v>253</v>
       </c>
       <c r="R19" s="19"/>
-      <c r="S19" s="0"/>
+      <c r="S19"/>
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
@@ -3906,12 +4127,12 @@
       </c>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="22">
         <v>1</v>
       </c>
       <c r="E20" s="22"/>
@@ -3930,7 +4151,7 @@
         <v>256</v>
       </c>
       <c r="R20" s="22"/>
-      <c r="S20" s="0"/>
+      <c r="S20"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
@@ -3939,12 +4160,12 @@
       </c>
       <c r="X20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="19">
         <v>1</v>
       </c>
       <c r="E21" s="19"/>
@@ -3965,7 +4186,7 @@
         <v>260</v>
       </c>
       <c r="R21" s="19"/>
-      <c r="S21" s="0"/>
+      <c r="S21"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
@@ -3974,12 +4195,12 @@
       </c>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="22">
         <v>1</v>
       </c>
       <c r="E22" s="22"/>
@@ -4000,7 +4221,7 @@
         <v>264</v>
       </c>
       <c r="R22" s="22"/>
-      <c r="S22" s="0"/>
+      <c r="S22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
@@ -4009,12 +4230,12 @@
       </c>
       <c r="X22" s="22"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="19"/>
@@ -4035,7 +4256,7 @@
         <v>268</v>
       </c>
       <c r="R23" s="19"/>
-      <c r="S23" s="0"/>
+      <c r="S23"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
@@ -4044,12 +4265,12 @@
       </c>
       <c r="X23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="22" t="n">
+      <c r="D24" s="22">
         <v>1</v>
       </c>
       <c r="E24" s="22"/>
@@ -4070,7 +4291,7 @@
         <v>271</v>
       </c>
       <c r="R24" s="22"/>
-      <c r="S24" s="0"/>
+      <c r="S24"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
@@ -4079,12 +4300,12 @@
       </c>
       <c r="X24" s="22"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="19" t="n">
+      <c r="D25" s="19">
         <v>3</v>
       </c>
       <c r="E25" s="19"/>
@@ -4103,7 +4324,7 @@
         <v>274</v>
       </c>
       <c r="R25" s="19"/>
-      <c r="S25" s="0"/>
+      <c r="S25"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
@@ -4112,12 +4333,12 @@
       </c>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="22" t="n">
+      <c r="D26" s="22">
         <v>3</v>
       </c>
       <c r="E26" s="22"/>
@@ -4136,7 +4357,7 @@
         <v>277</v>
       </c>
       <c r="R26" s="22"/>
-      <c r="S26" s="0"/>
+      <c r="S26"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
@@ -4145,12 +4366,12 @@
       </c>
       <c r="X26" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="19">
         <v>1</v>
       </c>
       <c r="E27" s="19"/>
@@ -4169,7 +4390,7 @@
         <v>280</v>
       </c>
       <c r="R27" s="19"/>
-      <c r="S27" s="0"/>
+      <c r="S27"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -4178,13 +4399,13 @@
       </c>
       <c r="X27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>282</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="30" t="n">
-        <f aca="false">SUM(D16:D27)</f>
+      <c r="D28" s="30">
+        <f>SUM(D16:D27)</f>
         <v>16</v>
       </c>
       <c r="E28" s="29"/>
@@ -4203,7 +4424,7 @@
         <v>284</v>
       </c>
       <c r="R28" s="22"/>
-      <c r="S28" s="0"/>
+      <c r="S28"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
@@ -4212,14 +4433,14 @@
       </c>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>286</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D29" s="19" t="n">
+      <c r="D29" s="19">
         <v>8</v>
       </c>
       <c r="E29" s="19"/>
@@ -4238,7 +4459,7 @@
         <v>289</v>
       </c>
       <c r="R29" s="19"/>
-      <c r="S29" s="0"/>
+      <c r="S29"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
@@ -4247,12 +4468,12 @@
       </c>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="22" t="n">
+      <c r="D30" s="22">
         <v>8</v>
       </c>
       <c r="E30" s="22"/>
@@ -4271,7 +4492,7 @@
         <v>292</v>
       </c>
       <c r="R30" s="22"/>
-      <c r="S30" s="0"/>
+      <c r="S30"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
@@ -4280,12 +4501,12 @@
       </c>
       <c r="X30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D31" s="19" t="n">
+      <c r="D31" s="19">
         <v>8</v>
       </c>
       <c r="E31" s="19"/>
@@ -4306,7 +4527,7 @@
         <v>297</v>
       </c>
       <c r="R31" s="19"/>
-      <c r="S31" s="0"/>
+      <c r="S31"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
@@ -4315,12 +4536,12 @@
       </c>
       <c r="X31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="22" t="n">
+      <c r="D32" s="22">
         <v>8</v>
       </c>
       <c r="E32" s="22"/>
@@ -4339,7 +4560,7 @@
         <v>301</v>
       </c>
       <c r="R32" s="22"/>
-      <c r="S32" s="0"/>
+      <c r="S32"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
@@ -4348,12 +4569,12 @@
       </c>
       <c r="X32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="D33" s="19" t="n">
+      <c r="D33" s="19">
         <v>1</v>
       </c>
       <c r="E33" s="19"/>
@@ -4372,7 +4593,7 @@
         <v>305</v>
       </c>
       <c r="R33" s="19"/>
-      <c r="S33" s="0"/>
+      <c r="S33"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
@@ -4381,12 +4602,12 @@
       </c>
       <c r="X33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="D34" s="22" t="n">
+      <c r="D34" s="22">
         <v>1</v>
       </c>
       <c r="E34" s="22"/>
@@ -4405,7 +4626,7 @@
         <v>309</v>
       </c>
       <c r="R34" s="22"/>
-      <c r="S34" s="0"/>
+      <c r="S34"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
@@ -4414,12 +4635,12 @@
       </c>
       <c r="X34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D35" s="19" t="n">
+      <c r="D35" s="19">
         <v>1</v>
       </c>
       <c r="E35" s="19"/>
@@ -4440,7 +4661,7 @@
         <v>314</v>
       </c>
       <c r="R35" s="19"/>
-      <c r="S35" s="0"/>
+      <c r="S35"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
@@ -4449,12 +4670,12 @@
       </c>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D36" s="22" t="n">
+      <c r="D36" s="22">
         <v>1</v>
       </c>
       <c r="E36" s="22"/>
@@ -4475,7 +4696,7 @@
         <v>319</v>
       </c>
       <c r="R36" s="22"/>
-      <c r="S36" s="0"/>
+      <c r="S36"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
@@ -4484,12 +4705,12 @@
       </c>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="19" t="n">
+      <c r="D37" s="19">
         <v>1</v>
       </c>
       <c r="E37" s="19"/>
@@ -4510,7 +4731,7 @@
         <v>323</v>
       </c>
       <c r="R37" s="19"/>
-      <c r="S37" s="0"/>
+      <c r="S37"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
@@ -4519,12 +4740,12 @@
       </c>
       <c r="X37" s="19"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="22" t="n">
+      <c r="D38" s="22">
         <v>1</v>
       </c>
       <c r="E38" s="22"/>
@@ -4543,7 +4764,7 @@
         <v>327</v>
       </c>
       <c r="R38" s="22"/>
-      <c r="S38" s="0"/>
+      <c r="S38"/>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
@@ -4552,12 +4773,12 @@
       </c>
       <c r="X38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="19" t="n">
+      <c r="D39" s="19">
         <v>1</v>
       </c>
       <c r="E39" s="19"/>
@@ -4576,7 +4797,7 @@
         <v>330</v>
       </c>
       <c r="R39" s="19"/>
-      <c r="S39" s="0"/>
+      <c r="S39"/>
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
@@ -4585,12 +4806,12 @@
       </c>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="22" t="n">
+      <c r="D40" s="22">
         <v>4</v>
       </c>
       <c r="E40" s="22"/>
@@ -4609,7 +4830,7 @@
         <v>334</v>
       </c>
       <c r="R40" s="22"/>
-      <c r="S40" s="0"/>
+      <c r="S40"/>
       <c r="T40" s="22"/>
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
@@ -4618,12 +4839,12 @@
       </c>
       <c r="X40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="D41" s="19" t="n">
+      <c r="D41" s="19">
         <v>6</v>
       </c>
       <c r="E41" s="19"/>
@@ -4642,7 +4863,7 @@
         <v>338</v>
       </c>
       <c r="R41" s="19"/>
-      <c r="S41" s="0"/>
+      <c r="S41"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
@@ -4651,12 +4872,12 @@
       </c>
       <c r="X41" s="19"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
       <c r="C42" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="22" t="n">
+      <c r="D42" s="22">
         <v>2</v>
       </c>
       <c r="E42" s="22"/>
@@ -4675,7 +4896,7 @@
         <v>341</v>
       </c>
       <c r="R42" s="22"/>
-      <c r="S42" s="0"/>
+      <c r="S42"/>
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
@@ -4684,12 +4905,12 @@
       </c>
       <c r="X42" s="22"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="D43" s="19" t="n">
+      <c r="D43" s="19">
         <v>6</v>
       </c>
       <c r="E43" s="19"/>
@@ -4708,7 +4929,7 @@
         <v>345</v>
       </c>
       <c r="R43" s="19"/>
-      <c r="S43" s="0"/>
+      <c r="S43"/>
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
       <c r="V43" s="19"/>
@@ -4717,12 +4938,12 @@
       </c>
       <c r="X43" s="19"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
       <c r="C44" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="22" t="n">
+      <c r="D44" s="22">
         <v>5</v>
       </c>
       <c r="E44" s="22"/>
@@ -4741,7 +4962,7 @@
         <v>349</v>
       </c>
       <c r="R44" s="22"/>
-      <c r="S44" s="0"/>
+      <c r="S44"/>
       <c r="T44" s="22"/>
       <c r="U44" s="22"/>
       <c r="V44" s="22"/>
@@ -4750,13 +4971,13 @@
       </c>
       <c r="X44" s="22"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>351</v>
       </c>
       <c r="C45" s="14"/>
-      <c r="D45" s="14" t="n">
-        <f aca="false">SUM(D29:D44)</f>
+      <c r="D45" s="14">
+        <f>SUM(D29:D44)</f>
         <v>62</v>
       </c>
       <c r="E45" s="14"/>
@@ -4775,7 +4996,7 @@
         <v>353</v>
       </c>
       <c r="R45" s="19"/>
-      <c r="S45" s="0"/>
+      <c r="S45"/>
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
       <c r="V45" s="19"/>
@@ -4784,14 +5005,14 @@
       </c>
       <c r="X45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
         <v>180</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="22" t="n">
+      <c r="D46" s="22">
         <v>1</v>
       </c>
       <c r="E46" s="22"/>
@@ -4810,7 +5031,7 @@
         <v>356</v>
       </c>
       <c r="R46" s="22"/>
-      <c r="S46" s="0"/>
+      <c r="S46"/>
       <c r="T46" s="22"/>
       <c r="U46" s="22"/>
       <c r="V46" s="22"/>
@@ -4819,12 +5040,12 @@
       </c>
       <c r="X46" s="22"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="19" t="n">
+      <c r="D47" s="19">
         <v>1</v>
       </c>
       <c r="E47" s="19"/>
@@ -4843,7 +5064,7 @@
         <v>359</v>
       </c>
       <c r="R47" s="19"/>
-      <c r="S47" s="0"/>
+      <c r="S47"/>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
@@ -4852,12 +5073,12 @@
       </c>
       <c r="X47" s="19"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="22"/>
       <c r="C48" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="D48" s="22" t="n">
+      <c r="D48" s="22">
         <v>1</v>
       </c>
       <c r="E48" s="22"/>
@@ -4876,7 +5097,7 @@
         <v>363</v>
       </c>
       <c r="R48" s="22"/>
-      <c r="S48" s="0"/>
+      <c r="S48"/>
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
@@ -4885,12 +5106,12 @@
       </c>
       <c r="X48" s="22"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="D49" s="19" t="n">
+      <c r="D49" s="19">
         <v>6</v>
       </c>
       <c r="E49" s="19"/>
@@ -4909,7 +5130,7 @@
         <v>367</v>
       </c>
       <c r="R49" s="19"/>
-      <c r="S49" s="0"/>
+      <c r="S49"/>
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
       <c r="V49" s="19"/>
@@ -4918,12 +5139,12 @@
       </c>
       <c r="X49" s="19"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="22"/>
       <c r="C50" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="D50" s="22" t="n">
+      <c r="D50" s="22">
         <v>1</v>
       </c>
       <c r="E50" s="22"/>
@@ -4942,7 +5163,7 @@
         <v>371</v>
       </c>
       <c r="R50" s="22"/>
-      <c r="S50" s="0"/>
+      <c r="S50"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
       <c r="V50" s="22"/>
@@ -4951,12 +5172,12 @@
       </c>
       <c r="X50" s="22"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="D51" s="19" t="n">
+      <c r="D51" s="19">
         <v>1</v>
       </c>
       <c r="E51" s="19"/>
@@ -4973,7 +5194,7 @@
         <v>374</v>
       </c>
       <c r="R51" s="19"/>
-      <c r="S51" s="0"/>
+      <c r="S51"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
@@ -4982,12 +5203,12 @@
       </c>
       <c r="X51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="22"/>
       <c r="C52" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="D52" s="22" t="n">
+      <c r="D52" s="22">
         <v>4</v>
       </c>
       <c r="E52" s="22"/>
@@ -5004,7 +5225,7 @@
         <v>377</v>
       </c>
       <c r="R52" s="22"/>
-      <c r="S52" s="0"/>
+      <c r="S52"/>
       <c r="T52" s="22"/>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
@@ -5013,12 +5234,12 @@
       </c>
       <c r="X52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
       <c r="C53" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="19" t="n">
+      <c r="D53" s="19">
         <v>6</v>
       </c>
       <c r="E53" s="19"/>
@@ -5035,7 +5256,7 @@
         <v>379</v>
       </c>
       <c r="R53" s="19"/>
-      <c r="S53" s="0"/>
+      <c r="S53"/>
       <c r="T53" s="19"/>
       <c r="U53" s="19"/>
       <c r="V53" s="19"/>
@@ -5044,12 +5265,12 @@
       </c>
       <c r="X53" s="19"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="22"/>
       <c r="C54" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="22" t="n">
+      <c r="D54" s="22">
         <v>5</v>
       </c>
       <c r="E54" s="22"/>
@@ -5066,7 +5287,7 @@
         <v>381</v>
       </c>
       <c r="R54" s="22"/>
-      <c r="S54" s="0"/>
+      <c r="S54"/>
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
       <c r="V54" s="22"/>
@@ -5075,7 +5296,7 @@
       </c>
       <c r="X54" s="22"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -5093,7 +5314,7 @@
         <v>383</v>
       </c>
       <c r="R55" s="19"/>
-      <c r="S55" s="0"/>
+      <c r="S55"/>
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
@@ -5102,7 +5323,7 @@
       </c>
       <c r="X55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -5120,7 +5341,7 @@
         <v>385</v>
       </c>
       <c r="R56" s="22"/>
-      <c r="S56" s="0"/>
+      <c r="S56"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
@@ -5129,11 +5350,11 @@
       </c>
       <c r="X56" s="22"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="19" t="n">
-        <f aca="false">SUM(D46:D54)</f>
+      <c r="D57" s="19">
+        <f>SUM(D46:D54)</f>
         <v>26</v>
       </c>
       <c r="E57" s="19"/>
@@ -5150,7 +5371,7 @@
         <v>387</v>
       </c>
       <c r="R57" s="19"/>
-      <c r="S57" s="0"/>
+      <c r="S57"/>
       <c r="T57" s="32"/>
       <c r="U57" s="32"/>
       <c r="V57" s="32"/>
@@ -5159,7 +5380,7 @@
       </c>
       <c r="X57" s="32"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -5174,10 +5395,10 @@
       <c r="R58" s="33"/>
       <c r="S58" s="31"/>
       <c r="T58" s="33"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -5190,7 +5411,7 @@
       <c r="W59" s="31"/>
       <c r="X59" s="31"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -5200,157 +5421,148 @@
       <c r="X60" s="31"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:B25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="16"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
